--- a/TNR_JDD/JDD.MP.CPT.xlsx
+++ b/TNR_JDD/JDD.MP.CPT.xlsx
@@ -20,32 +20,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="D7">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAApZVGL4o
-Jean-Marc LAFARGE    (2023-04-18 13:34:56)
-Ajouté les .....
-Remplacer CRE par MAJ</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi7JMLY8rzhCTen/svE9yARh56xcw=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="163">
   <si>
     <t>Date</t>
   </si>
@@ -412,6 +388,9 @@
     <t>N</t>
   </si>
   <si>
+    <t>ORG.MP.CPT.001.CRE.01</t>
+  </si>
+  <si>
     <t>MP.CPT.001.CRE.02</t>
   </si>
   <si>
@@ -425,6 +404,12 @@
   </si>
   <si>
     <t>CPT.MP.CPT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>ORG.MP.CPT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>COMPTEUR PRINCIPAL</t>
   </si>
   <si>
     <t>MP.CPT.001.LEC.01</t>
@@ -442,6 +427,9 @@
     <t>GTC003</t>
   </si>
   <si>
+    <t>ORG.MP.CPT.001.LEC.01</t>
+  </si>
+  <si>
     <t>MP.CPT.001.MAJ.01</t>
   </si>
   <si>
@@ -455,6 +443,9 @@
   </si>
   <si>
     <t>UPD.GTC003</t>
+  </si>
+  <si>
+    <t>ORG.UPD.MP.CPT.001.MAJ.01</t>
   </si>
   <si>
     <t>MP.CPT.001.SUP.01</t>
@@ -3796,6 +3787,8 @@
     <col customWidth="1" min="5" max="5" width="24.38"/>
     <col customWidth="1" min="6" max="7" width="12.63"/>
     <col customWidth="1" min="24" max="24" width="23.0"/>
+    <col customWidth="1" min="28" max="28" width="26.75"/>
+    <col customWidth="1" min="29" max="29" width="21.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -4180,22 +4173,25 @@
       <c r="AA7" s="16" t="s">
         <v>115</v>
       </c>
+      <c r="AB7" s="16" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>110</v>
@@ -4225,7 +4221,7 @@
         <v>110</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>115</v>
@@ -4252,7 +4248,7 @@
         <v>44713.0</v>
       </c>
       <c r="X8" s="44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y8" s="16" t="s">
         <v>113</v>
@@ -4263,22 +4259,28 @@
       <c r="AA8" s="16" t="s">
         <v>113</v>
       </c>
+      <c r="AB8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC8" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="38" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>110</v>
@@ -4308,7 +4310,7 @@
         <v>110</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>115</v>
@@ -4346,22 +4348,25 @@
       <c r="AA9" s="16" t="s">
         <v>115</v>
       </c>
+      <c r="AB9" s="16" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="38" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>110</v>
@@ -4391,7 +4396,7 @@
         <v>110</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P10" s="16" t="s">
         <v>115</v>
@@ -4429,88 +4434,91 @@
       <c r="AA10" s="16" t="s">
         <v>115</v>
       </c>
+      <c r="AB10" s="16" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="38" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M11" s="46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N11" s="47" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="S11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="T11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="U11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="V11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="W11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="X11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Y11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Z11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AA11" s="45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -12575,8 +12583,7 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14128,123 +14135,123 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="59" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="61" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="61" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="61" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="61" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="61" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="61" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="61" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="61" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="61" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="61" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1"/>
@@ -15259,7 +15266,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="26"/>
       <c r="B1" s="27" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>

--- a/TNR_JDD/JDD.MP.CPT.xlsx
+++ b/TNR_JDD/JDD.MP.CPT.xlsx
@@ -13,15 +13,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mg4z77Pyrj0HOk3XPnlC7muqF0h+g=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="EIb3KZ1duUJNEFUq+OHqs0kEMWUBCP5ZsonDsvaxmk8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="173">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Création de l'onglet 001A pour la table HISCOM</t>
+  </si>
+  <si>
+    <t>Ajout  rubriques COM.NU_DELPRC et COM.NU_DELVAL</t>
+  </si>
+  <si>
+    <t>X3i</t>
+  </si>
+  <si>
+    <t>V13.0.21</t>
   </si>
   <si>
     <t>Onglet</t>
@@ -305,6 +314,21 @@
   </si>
   <si>
     <t>Interdire la mise à jour du compteur par un autre compteur</t>
+  </si>
+  <si>
+    <t>NU_DELPRC</t>
+  </si>
+  <si>
+    <t>Pourcentage du delta autorisé pour entre deux indications du compteur</t>
+  </si>
+  <si>
+    <t>NULL par défaut</t>
+  </si>
+  <si>
+    <t>NU_DELVAL</t>
+  </si>
+  <si>
+    <t>Delta de valeur autorisé entre deux indications du compteur</t>
   </si>
   <si>
     <t>001A</t>
@@ -565,10 +589,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -589,11 +612,11 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -810,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -818,15 +841,14 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -838,7 +860,7 @@
     <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -864,6 +886,9 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -876,9 +901,6 @@
     <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -889,6 +911,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="3" fillId="9" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="3" fillId="10" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -921,7 +946,7 @@
     <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -930,7 +955,7 @@
     <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -950,9 +975,6 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -975,7 +997,7 @@
     </xf>
     <xf borderId="3" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="15" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1264,19 +1286,35 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>45020.0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>45070.0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="5" ht="12.75" customHeight="1"/>
     <row r="6" ht="12.75" customHeight="1"/>
     <row r="7" ht="12.75" customHeight="1"/>
@@ -2305,529 +2343,561 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>1069.0</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="B4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="A28" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="12.0" customHeight="1">
+      <c r="A29" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" ht="12.0" customHeight="1">
+      <c r="A30" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" ht="12.0" customHeight="1">
+      <c r="A31" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="21">
+        <v>1320.0</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="A33" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C33" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="D33" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="15" t="s">
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="A35" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="D35" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="21">
-        <v>1320.0</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
+      <c r="E35" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="36" ht="12.75" customHeight="1"/>
     <row r="37" ht="12.75" customHeight="1"/>
     <row r="38" ht="12.75" customHeight="1"/>
@@ -3022,8 +3092,8 @@
     <row r="227" ht="12.75" customHeight="1"/>
     <row r="228" ht="12.75" customHeight="1"/>
     <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
     <row r="232" ht="15.75" customHeight="1"/>
     <row r="233" ht="15.75" customHeight="1"/>
     <row r="234" ht="15.75" customHeight="1"/>
@@ -3793,6 +3863,8 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -3824,109 +3896,115 @@
     <col customWidth="1" min="5" max="5" width="24.38"/>
     <col customWidth="1" min="6" max="7" width="12.63"/>
     <col customWidth="1" min="24" max="24" width="23.0"/>
-    <col customWidth="1" min="28" max="28" width="26.75"/>
-    <col customWidth="1" min="29" max="29" width="21.5"/>
+    <col customWidth="1" min="28" max="30" width="26.75"/>
+    <col customWidth="1" min="31" max="31" width="21.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="29" t="s">
+      <c r="A1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="31" t="s">
+      <c r="I1" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="29" t="s">
+      <c r="O1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="Q1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="X1" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y1" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z1" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA1" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB1" s="32" t="s">
+      <c r="R1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB1" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="32" t="s">
-        <v>96</v>
+      <c r="AD1" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE1" s="32" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -3938,10 +4016,10 @@
       <c r="L2" s="33"/>
       <c r="M2" s="35"/>
       <c r="N2" s="36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P2" s="33"/>
       <c r="Q2" s="33"/>
@@ -3952,17 +4030,19 @@
       <c r="V2" s="33"/>
       <c r="W2" s="33"/>
       <c r="X2" s="33" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="Y2" s="33"/>
       <c r="Z2" s="33"/>
       <c r="AA2" s="33"/>
       <c r="AB2" s="33"/>
       <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -3990,16 +4070,18 @@
       <c r="Y3" s="33"/>
       <c r="Z3" s="33"/>
       <c r="AA3" s="33"/>
-      <c r="AB3" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC3" s="33" t="s">
-        <v>101</v>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE3" s="33" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -4029,79 +4111,87 @@
       <c r="AA4" s="33"/>
       <c r="AB4" s="33"/>
       <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
       <c r="L5" s="33" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M5" s="35"/>
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
       <c r="P5" s="33" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="33" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="S5" s="33"/>
       <c r="T5" s="33"/>
       <c r="U5" s="33" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="V5" s="33" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="W5" s="33" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="X5" s="33" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Y5" s="33" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Z5" s="33" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AA5" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB5" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC5" s="33" t="s">
-        <v>104</v>
+        <v>113</v>
+      </c>
+      <c r="AB5" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC5" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD5" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE5" s="33" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="38" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -4131,350 +4221,376 @@
       <c r="AA6" s="38"/>
       <c r="AB6" s="38"/>
       <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="16">
+        <v>119</v>
+      </c>
+      <c r="L7" s="15">
         <v>100000.0</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N7" s="45"/>
       <c r="O7" s="46"/>
-      <c r="P7" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="V7" s="16" t="s">
-        <v>115</v>
+      <c r="P7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="W7" s="47">
         <v>44562.0</v>
       </c>
-      <c r="X7" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y7" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z7" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA7" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB7" s="16" t="s">
-        <v>116</v>
+      <c r="X7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>1000.0</v>
+      </c>
+      <c r="AD7" s="15" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>108</v>
+        <v>125</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>111</v>
+      <c r="G8" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" s="16">
+        <v>119</v>
+      </c>
+      <c r="L8" s="15">
         <v>200000.0</v>
       </c>
       <c r="M8" s="44" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N8" s="45"/>
       <c r="O8" s="46"/>
-      <c r="P8" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="V8" s="16" t="s">
-        <v>115</v>
+      <c r="P8" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="W8" s="47">
         <v>44713.0</v>
       </c>
       <c r="X8" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y8" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="AC8" s="16" t="s">
-        <v>122</v>
+      <c r="Z8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>20.0</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>2000.0</v>
+      </c>
+      <c r="AD8" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE8" s="15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="41" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>111</v>
+        <v>133</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" s="16">
+        <v>119</v>
+      </c>
+      <c r="L9" s="15">
         <v>300000.0</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N9" s="45"/>
       <c r="O9" s="46"/>
-      <c r="P9" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="V9" s="16" t="s">
-        <v>115</v>
+      <c r="P9" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="W9" s="47">
         <v>44927.0</v>
       </c>
-      <c r="X9" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y9" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z9" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA9" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB9" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC9" s="16" t="s">
-        <v>128</v>
+      <c r="X9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z9" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA9" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>30.0</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>3000.0</v>
+      </c>
+      <c r="AD9" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE9" s="15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="41" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>111</v>
+        <v>137</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="L10" s="16">
+        <v>119</v>
+      </c>
+      <c r="L10" s="15">
         <v>400000.0</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N10" s="45"/>
       <c r="O10" s="46"/>
-      <c r="P10" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="V10" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="W10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y10" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z10" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA10" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB10" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC10" s="16" t="s">
-        <v>128</v>
+      <c r="P10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>50.0</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>5000.0</v>
+      </c>
+      <c r="AD10" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE10" s="15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="41" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="50"/>
@@ -4503,13 +4619,15 @@
       <c r="AA11" s="50"/>
       <c r="AB11" s="51"/>
       <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>135</v>
+        <v>143</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="50"/>
@@ -4538,6 +4656,8 @@
       <c r="AA12" s="50"/>
       <c r="AB12" s="51"/>
       <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="52"/>
@@ -13600,79 +13720,79 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="55" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
+        <v>99</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
     </row>
     <row r="2">
-      <c r="A2" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="A2" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3">
-      <c r="A3" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+      <c r="A3" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4">
-      <c r="A4" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="A4" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
     </row>
     <row r="5">
-      <c r="A5" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="A5" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="A6" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="52"/>
@@ -15126,62 +15246,62 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="27"/>
-      <c r="B1" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" s="33"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B3" s="33"/>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B4" s="33"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B5" s="33"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="38" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B6" s="38"/>
     </row>
@@ -16635,146 +16755,146 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>139</v>
+      <c r="A1" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>142</v>
+      <c r="A2" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>144</v>
+      <c r="A3" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>146</v>
+      <c r="A4" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="67" t="s">
+      <c r="A5" s="65" t="s">
         <v>148</v>
       </c>
+      <c r="B5" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>150</v>
+      <c r="A6" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>152</v>
+      <c r="A7" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>154</v>
+      <c r="A8" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>156</v>
+      <c r="A9" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>158</v>
+      <c r="A10" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>160</v>
+      <c r="A11" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>162</v>
+      <c r="A12" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>164</v>
+      <c r="A13" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1"/>

--- a/TNR_JDD/JDD.MP.CPT.xlsx
+++ b/TNR_JDD/JDD.MP.CPT.xlsx
@@ -14,14 +14,38 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="EIb3KZ1duUJNEFUq+OHqs0kEMWUBCP5ZsonDsvaxmk8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="bkXG3YQt6eLgADm0v90o7jvmBKoIqc94FAaG/LHZ5oQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="D16">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAA0awblY0
+Nicolas HUC    (2023-07-06 06:41:07)
+@jean-marc.lafarge-ext@apave.com Question à élucider
+_Attribuée à Jean-Marc LAFARGE_</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgCRqLkv7BSURaOVeg9xeSzl6SLaA=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="174">
   <si>
     <t>Date</t>
   </si>
@@ -220,6 +244,9 @@
     <t>OBSOLETE ?</t>
   </si>
   <si>
+    <t>A actualiser</t>
+  </si>
+  <si>
     <t>ST_NUMGTC</t>
   </si>
   <si>
@@ -262,16 +289,29 @@
     <t>Méthode d'extrapolation de la valeur du compteur</t>
   </si>
   <si>
-    <t>Question MOE: Quelles valeurs possibles ?</t>
-  </si>
-  <si>
-    <t>A actualiser</t>
+    <t>0 : Linéaire
+1 : Exponentielle
+2 : Puissance
+3 : Polynomiale
+4 : Linéaire avec recalage</t>
   </si>
   <si>
     <t>NU_DEG</t>
   </si>
   <si>
-    <t>Degré du polynome pour la méthode d'extrapolation</t>
+    <t>Degré du polynome pour la méthode d'extrapolation polynomiale</t>
+  </si>
+  <si>
+    <t>-1: Sans objet
+0:dégré 2
+1:dégré 3
+2:dégré 4
+3:dégré 5
+4:dégré 6
+5:dégré 7
+6:dégré 8
+7:dégré 9
+8:dégré 10</t>
   </si>
   <si>
     <t>ST_MPH</t>
@@ -650,13 +690,13 @@
     </font>
     <font>
       <b/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF980000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF980000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -2597,22 +2637,22 @@
       <c r="D16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>28</v>
+      <c r="E16" s="18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="18" t="s">
         <v>63</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>28</v>
@@ -2620,13 +2660,13 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>28</v>
@@ -2635,13 +2675,13 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>46</v>
@@ -2652,36 +2692,36 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
+      <c r="E21" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="14" t="s">
         <v>76</v>
       </c>
@@ -2691,22 +2731,22 @@
       <c r="C22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>75</v>
+      <c r="D22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>28</v>
@@ -2714,13 +2754,13 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>28</v>
@@ -2728,10 +2768,10 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>43</v>
@@ -2742,10 +2782,10 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>27</v>
@@ -2759,13 +2799,13 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>28</v>
@@ -2773,13 +2813,13 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>28</v>
@@ -2787,13 +2827,13 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>28</v>
@@ -2801,16 +2841,16 @@
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>28</v>
@@ -2818,16 +2858,16 @@
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>28</v>
@@ -2835,10 +2875,10 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="21">
@@ -2866,10 +2906,10 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>43</v>
@@ -2883,10 +2923,10 @@
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>40</v>
@@ -3869,7 +3909,8 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3944,55 +3985,55 @@
         <v>57</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S1" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>76</v>
       </c>
       <c r="U1" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W1" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y1" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z1" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA1" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB1" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC1" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD1" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AE1" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -4000,11 +4041,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -4016,10 +4057,10 @@
       <c r="L2" s="33"/>
       <c r="M2" s="35"/>
       <c r="N2" s="36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P2" s="33"/>
       <c r="Q2" s="33"/>
@@ -4030,7 +4071,7 @@
       <c r="V2" s="33"/>
       <c r="W2" s="33"/>
       <c r="X2" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y2" s="33"/>
       <c r="Z2" s="33"/>
@@ -4042,7 +4083,7 @@
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -4073,15 +4114,15 @@
       <c r="AB3" s="33"/>
       <c r="AC3" s="33"/>
       <c r="AD3" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE3" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -4116,82 +4157,82 @@
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
       <c r="L5" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M5" s="35"/>
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
       <c r="P5" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S5" s="33"/>
       <c r="T5" s="33"/>
       <c r="U5" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="V5" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W5" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="V5" s="33" t="s">
+      <c r="X5" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="W5" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="X5" s="33" t="s">
-        <v>112</v>
-      </c>
       <c r="Y5" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z5" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA5" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB5" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="AC5" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="AA5" s="33" t="s">
+      <c r="AD5" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="AB5" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC5" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD5" s="33" t="s">
-        <v>112</v>
-      </c>
       <c r="AE5" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -4226,81 +4267,81 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L7" s="15">
         <v>100000.0</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" s="45"/>
       <c r="O7" s="46"/>
       <c r="P7" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="T7" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W7" s="47">
         <v>44562.0</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y7" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z7" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB7" s="15">
         <v>10.0</v>
@@ -4309,86 +4350,86 @@
         <v>1000.0</v>
       </c>
       <c r="AD7" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" s="15">
         <v>200000.0</v>
       </c>
       <c r="M8" s="44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N8" s="45"/>
       <c r="O8" s="46"/>
       <c r="P8" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="Q8" s="15" t="s">
-        <v>122</v>
-      </c>
       <c r="R8" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="T8" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W8" s="47">
         <v>44713.0</v>
       </c>
       <c r="X8" s="48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z8" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA8" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB8" s="15">
         <v>20.0</v>
@@ -4397,89 +4438,89 @@
         <v>2000.0</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AE8" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L9" s="15">
         <v>300000.0</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N9" s="45"/>
       <c r="O9" s="46"/>
       <c r="P9" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="Q9" s="15" t="s">
-        <v>122</v>
-      </c>
       <c r="R9" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="T9" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W9" s="47">
         <v>44927.0</v>
       </c>
       <c r="X9" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y9" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z9" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA9" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB9" s="15">
         <v>30.0</v>
@@ -4488,89 +4529,89 @@
         <v>3000.0</v>
       </c>
       <c r="AD9" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AE9" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L10" s="15">
         <v>400000.0</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N10" s="45"/>
       <c r="O10" s="46"/>
       <c r="P10" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="R10" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="15" t="s">
-        <v>121</v>
-      </c>
       <c r="S10" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="T10" s="15">
+        <v>-1.0</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y10" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z10" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB10" s="15">
         <v>50.0</v>
@@ -4579,18 +4620,18 @@
         <v>5000.0</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AE10" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="50"/>
@@ -4624,10 +4665,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="50"/>
@@ -13720,16 +13761,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -13764,7 +13805,7 @@
     </row>
     <row r="3">
       <c r="A3" s="57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="59"/>
@@ -13772,7 +13813,7 @@
     </row>
     <row r="4">
       <c r="A4" s="57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" s="58"/>
       <c r="C4" s="59"/>
@@ -13780,7 +13821,7 @@
     </row>
     <row r="5">
       <c r="A5" s="57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="59"/>
@@ -13788,7 +13829,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="62"/>
@@ -15248,7 +15289,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="26"/>
       <c r="B1" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -15283,25 +15324,25 @@
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="33"/>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" s="33"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" s="33"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="38"/>
     </row>
@@ -16756,145 +16797,145 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1"/>

--- a/TNR_JDD/JDD.MP.CPT.xlsx
+++ b/TNR_JDD/JDD.MP.CPT.xlsx
@@ -38,7 +38,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgCRqLkv7BSURaOVeg9xeSzl6SLaA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhVaUDYzPlEqxztmdWLqyFaS3h5Rg=="/>
     </ext>
   </extLst>
 </comments>

--- a/TNR_JDD/JDD.MP.CPT.xlsx
+++ b/TNR_JDD/JDD.MP.CPT.xlsx
@@ -608,10 +608,10 @@
     <t>PARA</t>
   </si>
   <si>
-    <t>VALEUR INTERNE</t>
-  </si>
-  <si>
-    <t>VALEUR</t>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>TEXTE IHM</t>
   </si>
   <si>
     <t>Non utilisé</t>
@@ -643,7 +643,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -746,6 +746,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="16">
@@ -877,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1039,8 +1044,11 @@
     <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -16461,194 +16469,194 @@
       <c r="B1" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="66" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="68">
         <v>0.0</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="68">
         <v>1.0</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="67" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="68">
         <v>2.0</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="67" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="68">
         <v>3.0</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="67" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="68">
         <v>4.0</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="67" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="70">
         <v>-1.0</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="69" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="69" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="70">
         <v>0.0</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="69">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="70">
         <v>1.0</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="69">
         <v>3.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="70">
         <v>2.0</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="69">
         <v>4.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="69">
+      <c r="B13" s="70">
         <v>3.0</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="69">
         <v>5.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14" s="70">
         <v>4.0</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="69">
         <v>6.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15" s="70">
         <v>5.0</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="69">
         <v>7.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="69">
+      <c r="B16" s="70">
         <v>6.0</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="69">
         <v>8.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="70">
         <v>7.0</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="69">
         <v>9.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="70">
         <v>8.0</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="69">
         <v>10.0</v>
       </c>
     </row>

--- a/TNR_JDD/JDD.MP.CPT.xlsx
+++ b/TNR_JDD/JDD.MP.CPT.xlsx
@@ -4364,7 +4364,7 @@
         <v>122</v>
       </c>
       <c r="L8" s="15">
-        <v>100000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" s="41" t="s">
         <v>123</v>
@@ -4411,7 +4411,7 @@
         <v>10.0</v>
       </c>
       <c r="AC8" s="15">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8" s="15" t="s">
         <v>128</v>
